--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_发现组.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0_发现组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\eclipse\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -120,15 +115,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC，房东APP，租客APP，后台BS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>郑良杰</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发现组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，房东APP，租客APP，后台BS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +819,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,7 +916,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>19</v>
@@ -925,15 +932,23 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>33</v>
+      <c r="L2" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25" t="s">
